--- a/src/attributions/attributions_ig_traj_370.xlsx
+++ b/src/attributions/attributions_ig_traj_370.xlsx
@@ -1004,7 +1004,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1019,7 +1019,7 @@
         <v>-0</v>
       </c>
       <c r="F2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -1046,7 +1046,7 @@
         <v>-0</v>
       </c>
       <c r="O2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1058,7 +1058,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>-0</v>
       </c>
       <c r="X2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -1085,7 +1085,7 @@
         <v>0</v>
       </c>
       <c r="AB2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
@@ -1100,7 +1100,7 @@
         <v>-0</v>
       </c>
       <c r="AG2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL2" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>-0</v>
       </c>
       <c r="AP2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ2" t="n">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1154,7 +1154,7 @@
         <v>-0</v>
       </c>
       <c r="AY2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>0</v>
       </c>
       <c r="BC2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD2" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>-0</v>
       </c>
       <c r="BH2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI2" t="n">
         <v>0</v>
@@ -1193,7 +1193,7 @@
         <v>0</v>
       </c>
       <c r="BL2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BM2" t="n">
         <v>0</v>
@@ -1208,7 +1208,7 @@
         <v>-0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BR2" t="n">
         <v>0</v>
@@ -1220,7 +1220,7 @@
         <v>0</v>
       </c>
       <c r="BU2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BV2" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>-0</v>
       </c>
       <c r="BZ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CA2" t="n">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="CD2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CE2" t="n">
         <v>0</v>
@@ -1262,7 +1262,7 @@
         <v>-0</v>
       </c>
       <c r="CI2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CJ2" t="n">
         <v>0</v>
@@ -1274,7 +1274,7 @@
         <v>0</v>
       </c>
       <c r="CM2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN2" t="n">
         <v>0</v>
@@ -1289,7 +1289,7 @@
         <v>-0</v>
       </c>
       <c r="CR2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CS2" t="n">
         <v>0</v>
@@ -1328,7 +1328,7 @@
         <v>0</v>
       </c>
       <c r="DE2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF2" t="n">
         <v>0</v>
@@ -1343,7 +1343,7 @@
         <v>-0</v>
       </c>
       <c r="DJ2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK2" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>0</v>
       </c>
       <c r="DN2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO2" t="n">
         <v>0</v>
@@ -1370,7 +1370,7 @@
         <v>-0</v>
       </c>
       <c r="DS2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT2" t="n">
         <v>0</v>
@@ -1409,7 +1409,7 @@
         <v>0</v>
       </c>
       <c r="EF2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG2" t="n">
         <v>0</v>
@@ -1424,7 +1424,7 @@
         <v>0</v>
       </c>
       <c r="EK2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EL2" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="EO2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP2" t="n">
         <v>0</v>
@@ -1451,7 +1451,7 @@
         <v>-0</v>
       </c>
       <c r="ET2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU2" t="n">
         <v>0</v>
@@ -1463,7 +1463,7 @@
         <v>0</v>
       </c>
       <c r="EX2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EY2" t="n">
         <v>0</v>
@@ -1478,7 +1478,7 @@
         <v>-0</v>
       </c>
       <c r="FC2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FD2" t="n">
         <v>0</v>
@@ -1490,7 +1490,7 @@
         <v>0</v>
       </c>
       <c r="FG2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH2" t="n">
         <v>0</v>
@@ -1505,7 +1505,7 @@
         <v>-0</v>
       </c>
       <c r="FL2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FM2" t="n">
         <v>0</v>
@@ -1517,7 +1517,7 @@
         <v>0</v>
       </c>
       <c r="FP2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FQ2" t="n">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>-0</v>
       </c>
       <c r="FU2" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV2" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-0</v>
+        <v>-0.0090453481775412</v>
       </c>
       <c r="B3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1473424376607238</v>
+        <v>0.3267211508159703</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1967455891426164</v>
+        <v>0.199894649193821</v>
       </c>
       <c r="F3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -1597,25 +1597,25 @@
         <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0.1855893292345331</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>-0</v>
+        <v>0.05180688185451818</v>
       </c>
       <c r="K3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.1051874320976603</v>
+        <v>0.1076902711389653</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01916002874205279</v>
+        <v>0.05259219311298755</v>
       </c>
       <c r="O3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -1624,49 +1624,49 @@
         <v>-0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1383530308242586</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>-0.0296315911639291</v>
       </c>
       <c r="T3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>-0.02626359803299785</v>
+        <v>0.2111869237100639</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.01409633113401403</v>
+        <v>0.1260031930036017</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Z3" t="n">
         <v>-0</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.05686416706252144</v>
+        <v>-0</v>
       </c>
       <c r="AB3" t="n">
-        <v>-0</v>
+        <v>-0.1115068032419464</v>
       </c>
       <c r="AC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD3" t="n">
-        <v>-0.04817900473242993</v>
+        <v>0.05659508641743188</v>
       </c>
       <c r="AE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AF3" t="n">
-        <v>-0.05853915933238003</v>
+        <v>0.06653387699598515</v>
       </c>
       <c r="AG3" t="n">
         <v>-0</v>
@@ -1678,52 +1678,52 @@
         <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>-0.1390166400100648</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>-0</v>
+        <v>0.07561194201207087</v>
       </c>
       <c r="AL3" t="n">
         <v>0</v>
       </c>
       <c r="AM3" t="n">
-        <v>-0.03080398402150581</v>
+        <v>-0.09036169060264229</v>
       </c>
       <c r="AN3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AO3" t="n">
-        <v>-0.06193829471635644</v>
+        <v>-0.09176782984015353</v>
       </c>
       <c r="AP3" t="n">
         <v>0</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>0.003220946316877489</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>-0</v>
+        <v>0.07338371336160071</v>
       </c>
       <c r="AU3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV3" t="n">
-        <v>-0.1425889658756947</v>
+        <v>0.3704451829430171</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AX3" t="n">
-        <v>0.1525343796981352</v>
+        <v>0.6391349675816723</v>
       </c>
       <c r="AY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ3" t="n">
         <v>-0</v>
@@ -1732,76 +1732,76 @@
         <v>-0</v>
       </c>
       <c r="BB3" t="n">
-        <v>0.2120856030990032</v>
+        <v>-0</v>
       </c>
       <c r="BC3" t="n">
-        <v>-0</v>
+        <v>-0.2094809407815305</v>
       </c>
       <c r="BD3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BE3" t="n">
-        <v>-0.1589902144781816</v>
+        <v>-0.0632289188643569</v>
       </c>
       <c r="BF3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG3" t="n">
-        <v>-0.002475257041832799</v>
+        <v>-0.04573037833652644</v>
       </c>
       <c r="BH3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ3" t="n">
         <v>0</v>
       </c>
       <c r="BK3" t="n">
-        <v>-0.0598643713106334</v>
+        <v>0</v>
       </c>
       <c r="BL3" t="n">
-        <v>-0</v>
+        <v>-0.1164571350735155</v>
       </c>
       <c r="BM3" t="n">
         <v>-0</v>
       </c>
       <c r="BN3" t="n">
-        <v>0.1394100292858649</v>
+        <v>0.2672403288223454</v>
       </c>
       <c r="BO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BP3" t="n">
-        <v>0.06394424681634281</v>
+        <v>0.1528698885027471</v>
       </c>
       <c r="BQ3" t="n">
         <v>-0</v>
       </c>
       <c r="BR3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT3" t="n">
-        <v>-0.06828855274177024</v>
+        <v>-0</v>
       </c>
       <c r="BU3" t="n">
-        <v>-0</v>
+        <v>0.0187798147733362</v>
       </c>
       <c r="BV3" t="n">
         <v>-0</v>
       </c>
       <c r="BW3" t="n">
-        <v>-0.01844817776555098</v>
+        <v>0.0806441891503888</v>
       </c>
       <c r="BX3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.1479584507568684</v>
+        <v>0.2746127203775935</v>
       </c>
       <c r="BZ3" t="n">
         <v>-0</v>
@@ -1813,22 +1813,22 @@
         <v>-0</v>
       </c>
       <c r="CC3" t="n">
-        <v>0.1451473651616235</v>
+        <v>-0</v>
       </c>
       <c r="CD3" t="n">
-        <v>-0</v>
+        <v>-0.01157929673917106</v>
       </c>
       <c r="CE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF3" t="n">
-        <v>0.08233414033871314</v>
+        <v>-0.08460632656358688</v>
       </c>
       <c r="CG3" t="n">
         <v>-0</v>
       </c>
       <c r="CH3" t="n">
-        <v>-0.03992722250566626</v>
+        <v>-0.07644577851125711</v>
       </c>
       <c r="CI3" t="n">
         <v>0</v>
@@ -1837,25 +1837,25 @@
         <v>-0</v>
       </c>
       <c r="CK3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL3" t="n">
-        <v>-0.02568981082854829</v>
+        <v>-0</v>
       </c>
       <c r="CM3" t="n">
-        <v>0</v>
+        <v>0.002207116618845708</v>
       </c>
       <c r="CN3" t="n">
         <v>0</v>
       </c>
       <c r="CO3" t="n">
-        <v>0.0196847294337301</v>
+        <v>0.07952371922509226</v>
       </c>
       <c r="CP3" t="n">
         <v>0</v>
       </c>
       <c r="CQ3" t="n">
-        <v>-0.06114184752273951</v>
+        <v>-0.3063663642177141</v>
       </c>
       <c r="CR3" t="n">
         <v>-0</v>
@@ -1864,25 +1864,25 @@
         <v>0</v>
       </c>
       <c r="CT3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU3" t="n">
-        <v>0.08750456468850655</v>
+        <v>0</v>
       </c>
       <c r="CV3" t="n">
-        <v>0</v>
+        <v>-0.03654204322660716</v>
       </c>
       <c r="CW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CX3" t="n">
-        <v>0.08494129540069378</v>
+        <v>-0.05226157307386584</v>
       </c>
       <c r="CY3" t="n">
         <v>0</v>
       </c>
       <c r="CZ3" t="n">
-        <v>-0.09310854027514857</v>
+        <v>-0.01272636207927349</v>
       </c>
       <c r="DA3" t="n">
         <v>-0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="DD3" t="n">
-        <v>-0.04184761463701495</v>
+        <v>0</v>
       </c>
       <c r="DE3" t="n">
-        <v>-0</v>
+        <v>0.01846041797466224</v>
       </c>
       <c r="DF3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.07193625233084493</v>
+        <v>0.003262691618200415</v>
       </c>
       <c r="DH3" t="n">
         <v>-0</v>
       </c>
       <c r="DI3" t="n">
-        <v>-0.002599053518707275</v>
+        <v>-0.1727192543397875</v>
       </c>
       <c r="DJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK3" t="n">
         <v>-0</v>
@@ -1921,79 +1921,79 @@
         <v>-0</v>
       </c>
       <c r="DM3" t="n">
-        <v>-0.002125630640254504</v>
+        <v>-0</v>
       </c>
       <c r="DN3" t="n">
-        <v>-0</v>
+        <v>-0.1802326493696176</v>
       </c>
       <c r="DO3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP3" t="n">
-        <v>-0.1228996661275735</v>
+        <v>-0.07064079279879214</v>
       </c>
       <c r="DQ3" t="n">
         <v>-0</v>
       </c>
       <c r="DR3" t="n">
-        <v>-0.004968036195060123</v>
+        <v>-0.09134422570865458</v>
       </c>
       <c r="DS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DU3" t="n">
         <v>-0</v>
       </c>
       <c r="DV3" t="n">
-        <v>0.1075513969152044</v>
+        <v>0</v>
       </c>
       <c r="DW3" t="n">
-        <v>0</v>
+        <v>-0.06983166556525749</v>
       </c>
       <c r="DX3" t="n">
         <v>-0</v>
       </c>
       <c r="DY3" t="n">
-        <v>-0.004898811976013552</v>
+        <v>-0.0582891044609129</v>
       </c>
       <c r="DZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EA3" t="n">
-        <v>0.02369336580212615</v>
+        <v>-0.0385673072968061</v>
       </c>
       <c r="EB3" t="n">
         <v>0</v>
       </c>
       <c r="EC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED3" t="n">
         <v>0</v>
       </c>
       <c r="EE3" t="n">
-        <v>-0.02091868593323909</v>
+        <v>-0</v>
       </c>
       <c r="EF3" t="n">
-        <v>-0</v>
+        <v>-0.08189134840541497</v>
       </c>
       <c r="EG3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH3" t="n">
-        <v>0.08062024717369658</v>
+        <v>-0.1496428269313499</v>
       </c>
       <c r="EI3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EJ3" t="n">
-        <v>-0.0003602063907002085</v>
+        <v>0.01136360982056992</v>
       </c>
       <c r="EK3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL3" t="n">
         <v>-0</v>
@@ -2002,142 +2002,142 @@
         <v>0</v>
       </c>
       <c r="EN3" t="n">
-        <v>0.001259513467460343</v>
+        <v>-0</v>
       </c>
       <c r="EO3" t="n">
-        <v>0</v>
+        <v>-0.1497517768104901</v>
       </c>
       <c r="EP3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ3" t="n">
-        <v>-0.07654515976522358</v>
+        <v>-0.0008444259313419785</v>
       </c>
       <c r="ER3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ES3" t="n">
-        <v>0.02902424976652862</v>
+        <v>-0.13203198661705</v>
       </c>
       <c r="ET3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW3" t="n">
-        <v>-0.089465594449992</v>
+        <v>-0</v>
       </c>
       <c r="EX3" t="n">
-        <v>0</v>
+        <v>-0.06165017774570217</v>
       </c>
       <c r="EY3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ3" t="n">
-        <v>0.08362853210932046</v>
+        <v>-0.06570765422236877</v>
       </c>
       <c r="FA3" t="n">
         <v>-0</v>
       </c>
       <c r="FB3" t="n">
-        <v>-0.04603200557277601</v>
+        <v>-0.02288434871876048</v>
       </c>
       <c r="FC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD3" t="n">
         <v>-0</v>
       </c>
       <c r="FE3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FF3" t="n">
-        <v>-0.06800565957840737</v>
+        <v>-0</v>
       </c>
       <c r="FG3" t="n">
-        <v>0</v>
+        <v>-0.01713130383939527</v>
       </c>
       <c r="FH3" t="n">
         <v>-0</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.07537266896075773</v>
+        <v>-0.01551284156985115</v>
       </c>
       <c r="FJ3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FK3" t="n">
-        <v>-0.1558843408413242</v>
+        <v>0.06205644345365041</v>
       </c>
       <c r="FL3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM3" t="n">
         <v>-0</v>
       </c>
       <c r="FN3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FO3" t="n">
-        <v>-0.1203418500077982</v>
+        <v>0</v>
       </c>
       <c r="FP3" t="n">
-        <v>0</v>
+        <v>-0.04780172514080363</v>
       </c>
       <c r="FQ3" t="n">
         <v>-0</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.04248064954623938</v>
+        <v>-0.001008579917184531</v>
       </c>
       <c r="FS3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FT3" t="n">
-        <v>-0.003870011806459402</v>
+        <v>-0.005418480358399515</v>
       </c>
       <c r="FU3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FV3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW3" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FX3" t="n">
-        <v>-0.0002589871700215267</v>
+        <v>0</v>
       </c>
       <c r="FY3" t="n">
-        <v>0</v>
+        <v>-0.08318611979306738</v>
       </c>
       <c r="FZ3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GA3" t="n">
-        <v>-0.002132960131285974</v>
+        <v>-0.01277263618891139</v>
       </c>
       <c r="GB3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GC3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD3" t="n">
         <v>-0</v>
       </c>
       <c r="GE3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF3" t="n">
         <v>-0</v>
       </c>
       <c r="GG3" t="n">
-        <v>-0.05741434816605866</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2145,70 +2145,70 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>-0</v>
+        <v>0.6768547304271948</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.2609226105632272</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-0.286352289118672</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1903341305020922</v>
+        <v>-0.1572337397667257</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H4" t="n">
         <v>-0</v>
       </c>
       <c r="I4" t="n">
-        <v>0.4887093569508015</v>
+        <v>-0</v>
       </c>
       <c r="J4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>-0</v>
+        <v>0.4000489838352853</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.1900006128740204</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>-0.1809381852557439</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.2036528719958981</v>
+        <v>-0.135737063351224</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0.4077574245563231</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>-0</v>
+        <v>0.2091093647303794</v>
       </c>
       <c r="U4" t="n">
-        <v>0.04243341096698734</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>-0.003121113636187528</v>
       </c>
       <c r="W4" t="n">
-        <v>0.2298075077618114</v>
+        <v>0.07058301184889663</v>
       </c>
       <c r="X4" t="n">
         <v>-0</v>
@@ -2217,52 +2217,52 @@
         <v>-0</v>
       </c>
       <c r="Z4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.1241397849897032</v>
+        <v>0</v>
       </c>
       <c r="AB4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>0</v>
+        <v>0.138588226021961</v>
       </c>
       <c r="AD4" t="n">
-        <v>-0.1162338981812442</v>
+        <v>-0</v>
       </c>
       <c r="AE4" t="n">
-        <v>0</v>
+        <v>-0.01168628018018015</v>
       </c>
       <c r="AF4" t="n">
-        <v>-0.1815350090415266</v>
+        <v>-0.1030890316647367</v>
       </c>
       <c r="AG4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>-0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>-0.2130645811794147</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="n">
-        <v>0</v>
+        <v>0.1382524299557517</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.008841532559980509</v>
+        <v>0</v>
       </c>
       <c r="AN4" t="n">
-        <v>0</v>
+        <v>-0.06196927746032804</v>
       </c>
       <c r="AO4" t="n">
-        <v>-0.1655524835961226</v>
+        <v>-0.04966302105649899</v>
       </c>
       <c r="AP4" t="n">
         <v>0</v>
@@ -2274,130 +2274,130 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>0.01265702656252403</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AU4" t="n">
-        <v>0</v>
+        <v>0.6834439056102668</v>
       </c>
       <c r="AV4" t="n">
-        <v>-0.4232054927646516</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>-0.1148174927171546</v>
       </c>
       <c r="AX4" t="n">
-        <v>-0.08633843164995042</v>
+        <v>0.1407785318081522</v>
       </c>
       <c r="AY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA4" t="n">
         <v>-0</v>
       </c>
       <c r="BB4" t="n">
-        <v>0.3776190350555872</v>
+        <v>0</v>
       </c>
       <c r="BC4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD4" t="n">
-        <v>-0</v>
+        <v>0.06738376610247729</v>
       </c>
       <c r="BE4" t="n">
-        <v>-0.1511321945567376</v>
+        <v>0</v>
       </c>
       <c r="BF4" t="n">
-        <v>-0</v>
+        <v>-0.05901730541784217</v>
       </c>
       <c r="BG4" t="n">
-        <v>-0.1029680850212362</v>
+        <v>-0.324408259333705</v>
       </c>
       <c r="BH4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ4" t="n">
         <v>0</v>
       </c>
       <c r="BK4" t="n">
-        <v>-0.05841905931692323</v>
+        <v>0</v>
       </c>
       <c r="BL4" t="n">
         <v>-0</v>
       </c>
       <c r="BM4" t="n">
-        <v>-0</v>
+        <v>0.06110532394069219</v>
       </c>
       <c r="BN4" t="n">
-        <v>0.07507001307401033</v>
+        <v>-0</v>
       </c>
       <c r="BO4" t="n">
-        <v>-0</v>
+        <v>0.1526789837577328</v>
       </c>
       <c r="BP4" t="n">
-        <v>0.1252735295990466</v>
+        <v>0.005724864735483472</v>
       </c>
       <c r="BQ4" t="n">
         <v>-0</v>
       </c>
       <c r="BR4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BT4" t="n">
-        <v>-0.1688285719867505</v>
+        <v>-0</v>
       </c>
       <c r="BU4" t="n">
         <v>-0</v>
       </c>
       <c r="BV4" t="n">
-        <v>0</v>
+        <v>0.2477078766374605</v>
       </c>
       <c r="BW4" t="n">
-        <v>-0.04945328187213056</v>
+        <v>0</v>
       </c>
       <c r="BX4" t="n">
-        <v>0</v>
+        <v>-0.02627702766125847</v>
       </c>
       <c r="BY4" t="n">
-        <v>-0.01517812338071607</v>
+        <v>0.01527091564263937</v>
       </c>
       <c r="BZ4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB4" t="n">
         <v>-0</v>
       </c>
       <c r="CC4" t="n">
-        <v>0.261757460184611</v>
+        <v>0</v>
       </c>
       <c r="CD4" t="n">
         <v>-0</v>
       </c>
       <c r="CE4" t="n">
-        <v>0</v>
+        <v>-0.1316840947931531</v>
       </c>
       <c r="CF4" t="n">
-        <v>0.08941021322592174</v>
+        <v>0</v>
       </c>
       <c r="CG4" t="n">
-        <v>-0</v>
+        <v>0.04078026446858752</v>
       </c>
       <c r="CH4" t="n">
-        <v>0.0706485833689988</v>
+        <v>-0.02425205047534399</v>
       </c>
       <c r="CI4" t="n">
         <v>-0</v>
@@ -2409,49 +2409,49 @@
         <v>0</v>
       </c>
       <c r="CL4" t="n">
-        <v>-0.09958086199728736</v>
+        <v>0</v>
       </c>
       <c r="CM4" t="n">
         <v>0</v>
       </c>
       <c r="CN4" t="n">
-        <v>0</v>
+        <v>0.02268175633215287</v>
       </c>
       <c r="CO4" t="n">
-        <v>0.03136582854390937</v>
+        <v>0</v>
       </c>
       <c r="CP4" t="n">
-        <v>0</v>
+        <v>-0.1238867453722931</v>
       </c>
       <c r="CQ4" t="n">
-        <v>-0.01995999703443277</v>
+        <v>-0.1571066124498058</v>
       </c>
       <c r="CR4" t="n">
         <v>0</v>
       </c>
       <c r="CS4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CU4" t="n">
-        <v>0.2201063606249785</v>
+        <v>0</v>
       </c>
       <c r="CV4" t="n">
         <v>0</v>
       </c>
       <c r="CW4" t="n">
-        <v>0</v>
+        <v>-0.1108361786274455</v>
       </c>
       <c r="CX4" t="n">
-        <v>0.04420730575603214</v>
+        <v>-0</v>
       </c>
       <c r="CY4" t="n">
-        <v>0</v>
+        <v>0.08296334301595341</v>
       </c>
       <c r="CZ4" t="n">
-        <v>0.006746800368374085</v>
+        <v>-0.0383657673161363</v>
       </c>
       <c r="DA4" t="n">
         <v>0</v>
@@ -2463,52 +2463,52 @@
         <v>-0</v>
       </c>
       <c r="DD4" t="n">
-        <v>-0.0893310586971998</v>
+        <v>-0</v>
       </c>
       <c r="DE4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF4" t="n">
-        <v>0</v>
+        <v>-0.09188089226902638</v>
       </c>
       <c r="DG4" t="n">
-        <v>-0.01538246141197777</v>
+        <v>0</v>
       </c>
       <c r="DH4" t="n">
-        <v>-0</v>
+        <v>-0.007252551859755759</v>
       </c>
       <c r="DI4" t="n">
-        <v>0.001805045115342167</v>
+        <v>-0.0007557587384421496</v>
       </c>
       <c r="DJ4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DK4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DL4" t="n">
         <v>0</v>
       </c>
       <c r="DM4" t="n">
-        <v>0.1029330586970483</v>
+        <v>0</v>
       </c>
       <c r="DN4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DO4" t="n">
-        <v>0</v>
+        <v>-0.1220717293003114</v>
       </c>
       <c r="DP4" t="n">
-        <v>0.1108067295490968</v>
+        <v>-0</v>
       </c>
       <c r="DQ4" t="n">
-        <v>-0</v>
+        <v>-0.003663887757100351</v>
       </c>
       <c r="DR4" t="n">
-        <v>0.008192638516838258</v>
+        <v>-0.07233411565370992</v>
       </c>
       <c r="DS4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DT4" t="n">
         <v>-0</v>
@@ -2517,22 +2517,22 @@
         <v>-0</v>
       </c>
       <c r="DV4" t="n">
-        <v>0.1548456569639142</v>
+        <v>0</v>
       </c>
       <c r="DW4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX4" t="n">
-        <v>-0</v>
+        <v>0.06778435159974187</v>
       </c>
       <c r="DY4" t="n">
-        <v>0.02619877224050461</v>
+        <v>0</v>
       </c>
       <c r="DZ4" t="n">
-        <v>0</v>
+        <v>-0.05518597998873514</v>
       </c>
       <c r="EA4" t="n">
-        <v>-0.04524844581859581</v>
+        <v>-0.08705432056987654</v>
       </c>
       <c r="EB4" t="n">
         <v>0</v>
@@ -2544,22 +2544,22 @@
         <v>0</v>
       </c>
       <c r="EE4" t="n">
-        <v>-0.03586135906517245</v>
+        <v>-0</v>
       </c>
       <c r="EF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG4" t="n">
-        <v>0</v>
+        <v>-0.02316076053072037</v>
       </c>
       <c r="EH4" t="n">
-        <v>0.02580977848535392</v>
+        <v>0</v>
       </c>
       <c r="EI4" t="n">
-        <v>-0</v>
+        <v>0.1280521251562182</v>
       </c>
       <c r="EJ4" t="n">
-        <v>0.222653555252738</v>
+        <v>-0.001403937451307096</v>
       </c>
       <c r="EK4" t="n">
         <v>-0</v>
@@ -2568,25 +2568,25 @@
         <v>-0</v>
       </c>
       <c r="EM4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN4" t="n">
-        <v>-0.1008000901797636</v>
+        <v>0</v>
       </c>
       <c r="EO4" t="n">
         <v>-0</v>
       </c>
       <c r="EP4" t="n">
-        <v>-0</v>
+        <v>-0.1061742812758056</v>
       </c>
       <c r="EQ4" t="n">
-        <v>0.1400082471924218</v>
+        <v>0</v>
       </c>
       <c r="ER4" t="n">
-        <v>-0</v>
+        <v>-0.04555293691704249</v>
       </c>
       <c r="ES4" t="n">
-        <v>0.003833895595771395</v>
+        <v>-0.05526206294222665</v>
       </c>
       <c r="ET4" t="n">
         <v>-0</v>
@@ -2595,25 +2595,25 @@
         <v>-0</v>
       </c>
       <c r="EV4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW4" t="n">
-        <v>-0.2249705428443548</v>
+        <v>-0</v>
       </c>
       <c r="EX4" t="n">
         <v>-0</v>
       </c>
       <c r="EY4" t="n">
-        <v>0</v>
+        <v>-0.1204212204884043</v>
       </c>
       <c r="EZ4" t="n">
-        <v>0.05999416539951784</v>
+        <v>0</v>
       </c>
       <c r="FA4" t="n">
-        <v>-0</v>
+        <v>0.07388869568611921</v>
       </c>
       <c r="FB4" t="n">
-        <v>0.07748640261604227</v>
+        <v>-0.0453350077744332</v>
       </c>
       <c r="FC4" t="n">
         <v>-0</v>
@@ -2625,73 +2625,73 @@
         <v>0</v>
       </c>
       <c r="FF4" t="n">
-        <v>-0.1409993129878982</v>
+        <v>0</v>
       </c>
       <c r="FG4" t="n">
         <v>-0</v>
       </c>
       <c r="FH4" t="n">
-        <v>-0</v>
+        <v>0.01286076708782778</v>
       </c>
       <c r="FI4" t="n">
-        <v>0.1030156378994401</v>
+        <v>-0</v>
       </c>
       <c r="FJ4" t="n">
-        <v>-0</v>
+        <v>0.1290941937101929</v>
       </c>
       <c r="FK4" t="n">
-        <v>-0.0602347680753567</v>
+        <v>0.002318283039130152</v>
       </c>
       <c r="FL4" t="n">
         <v>0</v>
       </c>
       <c r="FM4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FN4" t="n">
         <v>-0</v>
       </c>
       <c r="FO4" t="n">
-        <v>-0.1152376439694396</v>
+        <v>0</v>
       </c>
       <c r="FP4" t="n">
         <v>-0</v>
       </c>
       <c r="FQ4" t="n">
-        <v>-0</v>
+        <v>0.01212586042940261</v>
       </c>
       <c r="FR4" t="n">
-        <v>0.08906014464496334</v>
+        <v>-0</v>
       </c>
       <c r="FS4" t="n">
-        <v>-0</v>
+        <v>0.03136558576053207</v>
       </c>
       <c r="FT4" t="n">
-        <v>0.001100682717635776</v>
+        <v>0.0005543344477491443</v>
       </c>
       <c r="FU4" t="n">
         <v>-0</v>
       </c>
       <c r="FV4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FW4" t="n">
         <v>0</v>
       </c>
       <c r="FX4" t="n">
-        <v>0.009939226146743649</v>
+        <v>0</v>
       </c>
       <c r="FY4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ4" t="n">
-        <v>0</v>
+        <v>0.01635086112183172</v>
       </c>
       <c r="GA4" t="n">
-        <v>-0.006210508870496711</v>
+        <v>-0</v>
       </c>
       <c r="GB4" t="n">
-        <v>0</v>
+        <v>-0.04637275783324324</v>
       </c>
       <c r="GC4" t="n">
         <v>0</v>
@@ -2700,13 +2700,13 @@
         <v>-0</v>
       </c>
       <c r="GE4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF4" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG4" t="n">
-        <v>-0.09672037442069407</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="5">
@@ -2714,7 +2714,7 @@
         <v>-0</v>
       </c>
       <c r="B5" t="n">
-        <v>-0</v>
+        <v>0.1613306227257895</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -2723,133 +2723,133 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.07292937817730454</v>
+        <v>-0.1341233859793937</v>
       </c>
       <c r="F5" t="n">
-        <v>-0</v>
+        <v>-0.05206950766302488</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.07939517363166192</v>
+        <v>-0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.1488305709646495</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>-0</v>
       </c>
       <c r="K5" t="n">
-        <v>-0</v>
+        <v>0.08703925317253709</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.08160440078427168</v>
+        <v>-0.09648764721718332</v>
       </c>
       <c r="O5" t="n">
-        <v>-0</v>
+        <v>-0.03080768875337093</v>
       </c>
       <c r="P5" t="n">
-        <v>-0.04896478018952811</v>
+        <v>-0</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0.1421936291775219</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>-0</v>
+        <v>0.03133708062881857</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.07936214137756636</v>
+        <v>-0.01790072166518056</v>
       </c>
       <c r="X5" t="n">
-        <v>-0</v>
+        <v>0.04715693511830685</v>
       </c>
       <c r="Y5" t="n">
-        <v>-0.00256079822809035</v>
+        <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.03677517063071695</v>
+        <v>0</v>
       </c>
       <c r="AB5" t="n">
         <v>-0</v>
       </c>
       <c r="AC5" t="n">
-        <v>-0</v>
+        <v>0.03296068417845219</v>
       </c>
       <c r="AD5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>-0.03881513759486187</v>
+        <v>0.01150732923792172</v>
       </c>
       <c r="AG5" t="n">
-        <v>-0</v>
+        <v>0.01917364283519599</v>
       </c>
       <c r="AH5" t="n">
-        <v>0.02315948628014284</v>
+        <v>-0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>-0.08262810117557566</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="n">
-        <v>-0</v>
+        <v>0.04226980504410863</v>
       </c>
       <c r="AM5" t="n">
         <v>-0</v>
       </c>
       <c r="AN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AO5" t="n">
-        <v>-0.05916520554155832</v>
+        <v>-0.02742056457177104</v>
       </c>
       <c r="AP5" t="n">
-        <v>0</v>
+        <v>-0.02447719139080726</v>
       </c>
       <c r="AQ5" t="n">
-        <v>-0.01514486552618924</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS5" t="n">
-        <v>0.01555314359459637</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
         <v>-0</v>
       </c>
       <c r="AU5" t="n">
-        <v>-0</v>
+        <v>0.1493690405057131</v>
       </c>
       <c r="AV5" t="n">
         <v>0</v>
@@ -2858,106 +2858,106 @@
         <v>0</v>
       </c>
       <c r="AX5" t="n">
-        <v>0.01351687591336964</v>
+        <v>-0.08324225401359364</v>
       </c>
       <c r="AY5" t="n">
-        <v>0</v>
+        <v>-0.02437616027368288</v>
       </c>
       <c r="AZ5" t="n">
-        <v>0.0285106875287092</v>
+        <v>0</v>
       </c>
       <c r="BA5" t="n">
         <v>-0</v>
       </c>
       <c r="BB5" t="n">
-        <v>0.1333271288956947</v>
+        <v>-0</v>
       </c>
       <c r="BC5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BD5" t="n">
-        <v>-0</v>
+        <v>0.04321487706621466</v>
       </c>
       <c r="BE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BG5" t="n">
-        <v>-0.1353613237607101</v>
+        <v>-0.07518399607585963</v>
       </c>
       <c r="BH5" t="n">
-        <v>-0</v>
+        <v>-0.01975031571027485</v>
       </c>
       <c r="BI5" t="n">
-        <v>-0.07130458755180076</v>
+        <v>-0</v>
       </c>
       <c r="BJ5" t="n">
         <v>0</v>
       </c>
       <c r="BK5" t="n">
-        <v>-0.007084944731546056</v>
+        <v>0</v>
       </c>
       <c r="BL5" t="n">
         <v>-0</v>
       </c>
       <c r="BM5" t="n">
-        <v>-0</v>
+        <v>0.06238754774141839</v>
       </c>
       <c r="BN5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BO5" t="n">
         <v>-0</v>
       </c>
       <c r="BP5" t="n">
-        <v>0.01911855279348934</v>
+        <v>0.02989903458715408</v>
       </c>
       <c r="BQ5" t="n">
-        <v>0</v>
+        <v>0.02981453767522116</v>
       </c>
       <c r="BR5" t="n">
-        <v>0.004485789486157624</v>
+        <v>-0</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>-0.0591178011118745</v>
+        <v>-0</v>
       </c>
       <c r="BU5" t="n">
         <v>-0</v>
       </c>
       <c r="BV5" t="n">
-        <v>-0</v>
+        <v>0.0652727654804541</v>
       </c>
       <c r="BW5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BX5" t="n">
         <v>0</v>
       </c>
       <c r="BY5" t="n">
-        <v>0.007097245142857791</v>
+        <v>-0.02716616622320389</v>
       </c>
       <c r="BZ5" t="n">
-        <v>0</v>
+        <v>0.01870397940777774</v>
       </c>
       <c r="CA5" t="n">
-        <v>-0.02415315027912373</v>
+        <v>0</v>
       </c>
       <c r="CB5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC5" t="n">
-        <v>0.07752535298301176</v>
+        <v>-0</v>
       </c>
       <c r="CD5" t="n">
         <v>-0</v>
       </c>
       <c r="CE5" t="n">
-        <v>0</v>
+        <v>-0.02802423383846431</v>
       </c>
       <c r="CF5" t="n">
         <v>-0</v>
@@ -2966,52 +2966,52 @@
         <v>-0</v>
       </c>
       <c r="CH5" t="n">
-        <v>0.01475584784108973</v>
+        <v>0.02481967082115658</v>
       </c>
       <c r="CI5" t="n">
-        <v>0</v>
+        <v>0.01909478112492195</v>
       </c>
       <c r="CJ5" t="n">
-        <v>0.009676598392167444</v>
+        <v>-0</v>
       </c>
       <c r="CK5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CL5" t="n">
-        <v>-0.02058394468362381</v>
+        <v>-0</v>
       </c>
       <c r="CM5" t="n">
         <v>0</v>
       </c>
       <c r="CN5" t="n">
-        <v>0</v>
+        <v>-0.01598849575591904</v>
       </c>
       <c r="CO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CP5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CQ5" t="n">
-        <v>0.03877506175209471</v>
+        <v>-0.008067701072107344</v>
       </c>
       <c r="CR5" t="n">
-        <v>-0</v>
+        <v>-0.02500136876545432</v>
       </c>
       <c r="CS5" t="n">
-        <v>-0.005118129041450484</v>
+        <v>-0</v>
       </c>
       <c r="CT5" t="n">
         <v>-0</v>
       </c>
       <c r="CU5" t="n">
-        <v>0.02802000188939332</v>
+        <v>-0</v>
       </c>
       <c r="CV5" t="n">
         <v>0</v>
       </c>
       <c r="CW5" t="n">
-        <v>-0</v>
+        <v>-0.01569100674384484</v>
       </c>
       <c r="CX5" t="n">
         <v>-0</v>
@@ -3020,25 +3020,25 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>0.003070708018196879</v>
+        <v>0.02394521694234303</v>
       </c>
       <c r="DA5" t="n">
-        <v>-0</v>
+        <v>0.02549341328257096</v>
       </c>
       <c r="DB5" t="n">
-        <v>0.01473553873920976</v>
+        <v>-0</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
       </c>
       <c r="DD5" t="n">
-        <v>-0.03152871028045765</v>
+        <v>0</v>
       </c>
       <c r="DE5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DF5" t="n">
-        <v>0</v>
+        <v>-0.01232750948820411</v>
       </c>
       <c r="DG5" t="n">
         <v>-0</v>
@@ -3047,106 +3047,106 @@
         <v>-0</v>
       </c>
       <c r="DI5" t="n">
-        <v>-0.05604033405975491</v>
+        <v>0.01208410911799054</v>
       </c>
       <c r="DJ5" t="n">
-        <v>-0</v>
+        <v>-0.00443659838226281</v>
       </c>
       <c r="DK5" t="n">
-        <v>0.01311573084050281</v>
+        <v>0</v>
       </c>
       <c r="DL5" t="n">
         <v>-0</v>
       </c>
       <c r="DM5" t="n">
-        <v>-0.01035116071424313</v>
+        <v>0</v>
       </c>
       <c r="DN5" t="n">
         <v>-0</v>
       </c>
       <c r="DO5" t="n">
-        <v>0</v>
+        <v>-0.02060192418467505</v>
       </c>
       <c r="DP5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DQ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DR5" t="n">
-        <v>-0.02603706805019377</v>
+        <v>0.01554347662904607</v>
       </c>
       <c r="DS5" t="n">
-        <v>-0</v>
+        <v>-0.03773747965928601</v>
       </c>
       <c r="DT5" t="n">
-        <v>-0.01743980800173578</v>
+        <v>-0</v>
       </c>
       <c r="DU5" t="n">
         <v>-0</v>
       </c>
       <c r="DV5" t="n">
-        <v>0.05764857673709502</v>
+        <v>-0</v>
       </c>
       <c r="DW5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DX5" t="n">
-        <v>-0</v>
+        <v>-0.005006861812670466</v>
       </c>
       <c r="DY5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EA5" t="n">
-        <v>0.01037858455341891</v>
+        <v>-0.03343845592505647</v>
       </c>
       <c r="EB5" t="n">
-        <v>-0</v>
+        <v>-0.02939942520309967</v>
       </c>
       <c r="EC5" t="n">
-        <v>-0.02835980479084977</v>
+        <v>-0</v>
       </c>
       <c r="ED5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EE5" t="n">
-        <v>0.03416420691018307</v>
+        <v>-0</v>
       </c>
       <c r="EF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EG5" t="n">
-        <v>0</v>
+        <v>-0.01883254255267887</v>
       </c>
       <c r="EH5" t="n">
         <v>-0</v>
       </c>
       <c r="EI5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EJ5" t="n">
-        <v>0.04716103532340053</v>
+        <v>0.02317394284058918</v>
       </c>
       <c r="EK5" t="n">
-        <v>0</v>
+        <v>0.01258489604281309</v>
       </c>
       <c r="EL5" t="n">
-        <v>0.005023176420232275</v>
+        <v>-0</v>
       </c>
       <c r="EM5" t="n">
         <v>-0</v>
       </c>
       <c r="EN5" t="n">
-        <v>-0.03500624317238944</v>
+        <v>-0</v>
       </c>
       <c r="EO5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EP5" t="n">
-        <v>0</v>
+        <v>0.01662538978101152</v>
       </c>
       <c r="EQ5" t="n">
         <v>0</v>
@@ -3155,79 +3155,79 @@
         <v>-0</v>
       </c>
       <c r="ES5" t="n">
-        <v>0.08191036484391188</v>
+        <v>0.01851308672418978</v>
       </c>
       <c r="ET5" t="n">
-        <v>0</v>
+        <v>0.03159573958968867</v>
       </c>
       <c r="EU5" t="n">
-        <v>0.04430839792233959</v>
+        <v>0</v>
       </c>
       <c r="EV5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EW5" t="n">
-        <v>-0.03703271020316077</v>
+        <v>0</v>
       </c>
       <c r="EX5" t="n">
         <v>-0</v>
       </c>
       <c r="EY5" t="n">
-        <v>0</v>
+        <v>-0.01386687733282042</v>
       </c>
       <c r="EZ5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FA5" t="n">
         <v>-0</v>
       </c>
       <c r="FB5" t="n">
-        <v>0.01776978219788078</v>
+        <v>0.02094706520193713</v>
       </c>
       <c r="FC5" t="n">
-        <v>0</v>
+        <v>0.02762722303772199</v>
       </c>
       <c r="FD5" t="n">
-        <v>0.01889255076435755</v>
+        <v>-0</v>
       </c>
       <c r="FE5" t="n">
         <v>-0</v>
       </c>
       <c r="FF5" t="n">
-        <v>-0.04112950106087524</v>
+        <v>-0</v>
       </c>
       <c r="FG5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FH5" t="n">
-        <v>0</v>
+        <v>-0.03235791348486353</v>
       </c>
       <c r="FI5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FK5" t="n">
-        <v>-0.04289036845716673</v>
+        <v>-0.03193102132322991</v>
       </c>
       <c r="FL5" t="n">
-        <v>-0</v>
+        <v>0.01849185157563376</v>
       </c>
       <c r="FM5" t="n">
-        <v>0.05639064580087228</v>
+        <v>0</v>
       </c>
       <c r="FN5" t="n">
         <v>-0</v>
       </c>
       <c r="FO5" t="n">
-        <v>-0.02769240139491285</v>
+        <v>0</v>
       </c>
       <c r="FP5" t="n">
         <v>0</v>
       </c>
       <c r="FQ5" t="n">
-        <v>0</v>
+        <v>0.001537571304812677</v>
       </c>
       <c r="FR5" t="n">
         <v>0</v>
@@ -3236,28 +3236,28 @@
         <v>-0</v>
       </c>
       <c r="FT5" t="n">
-        <v>0.006371373688579805</v>
+        <v>-0.001784221538342116</v>
       </c>
       <c r="FU5" t="n">
-        <v>-0</v>
+        <v>0.005180230722711923</v>
       </c>
       <c r="FV5" t="n">
-        <v>0.02986395811594789</v>
+        <v>-0</v>
       </c>
       <c r="FW5" t="n">
         <v>-0</v>
       </c>
       <c r="FX5" t="n">
-        <v>0.009596271027598644</v>
+        <v>0</v>
       </c>
       <c r="FY5" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ5" t="n">
-        <v>0</v>
+        <v>-0.02820141911724529</v>
       </c>
       <c r="GA5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GB5" t="n">
         <v>0</v>
@@ -3266,16 +3266,16 @@
         <v>0</v>
       </c>
       <c r="GD5" t="n">
-        <v>-0</v>
+        <v>-0.02662506825605961</v>
       </c>
       <c r="GE5" t="n">
-        <v>0.02088559131158609</v>
+        <v>-0</v>
       </c>
       <c r="GF5" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG5" t="n">
-        <v>-0.01514623340036177</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -3283,7 +3283,7 @@
         <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -3304,13 +3304,13 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -3331,13 +3331,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -3358,13 +3358,13 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB6" t="n">
         <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AD6" t="n">
         <v>0</v>
@@ -3385,13 +3385,13 @@
         <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
         <v>0</v>
       </c>
       <c r="AL6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AM6" t="n">
         <v>0</v>
@@ -3412,13 +3412,13 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
         <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AV6" t="n">
         <v>0</v>
@@ -3439,13 +3439,13 @@
         <v>0</v>
       </c>
       <c r="BB6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BC6" t="n">
         <v>0</v>
       </c>
       <c r="BD6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BE6" t="n">
         <v>0</v>
@@ -3466,13 +3466,13 @@
         <v>0</v>
       </c>
       <c r="BK6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BL6" t="n">
         <v>0</v>
       </c>
       <c r="BM6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BN6" t="n">
         <v>0</v>
@@ -3493,13 +3493,13 @@
         <v>0</v>
       </c>
       <c r="BT6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
       </c>
       <c r="BV6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BW6" t="n">
         <v>0</v>
@@ -3520,13 +3520,13 @@
         <v>0</v>
       </c>
       <c r="CC6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD6" t="n">
         <v>0</v>
       </c>
       <c r="CE6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CF6" t="n">
         <v>0</v>
@@ -3547,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="CL6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CM6" t="n">
         <v>0</v>
       </c>
       <c r="CN6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CO6" t="n">
         <v>0</v>
@@ -3574,7 +3574,7 @@
         <v>0</v>
       </c>
       <c r="CU6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV6" t="n">
         <v>0</v>
@@ -3607,7 +3607,7 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DG6" t="n">
         <v>0</v>
@@ -3628,13 +3628,13 @@
         <v>0</v>
       </c>
       <c r="DM6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN6" t="n">
         <v>0</v>
       </c>
       <c r="DO6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DP6" t="n">
         <v>0</v>
@@ -3655,7 +3655,7 @@
         <v>0</v>
       </c>
       <c r="DV6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW6" t="n">
         <v>0</v>
@@ -3688,7 +3688,7 @@
         <v>0</v>
       </c>
       <c r="EG6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EH6" t="n">
         <v>0</v>
@@ -3709,13 +3709,13 @@
         <v>0</v>
       </c>
       <c r="EN6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EO6" t="n">
         <v>0</v>
       </c>
       <c r="EP6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EQ6" t="n">
         <v>0</v>
@@ -3736,13 +3736,13 @@
         <v>0</v>
       </c>
       <c r="EW6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EX6" t="n">
         <v>0</v>
       </c>
       <c r="EY6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EZ6" t="n">
         <v>0</v>
@@ -3763,13 +3763,13 @@
         <v>0</v>
       </c>
       <c r="FF6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FG6" t="n">
         <v>0</v>
       </c>
       <c r="FH6" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FI6" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="FO6" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FP6" t="n">
         <v>0</v>
@@ -3852,70 +3852,70 @@
         <v>-0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>-0.3535265906337405</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5425786031223677</v>
+        <v>-0</v>
       </c>
       <c r="D7" t="n">
-        <v>-0</v>
+        <v>0.2859339868834381</v>
       </c>
       <c r="E7" t="n">
-        <v>0.08256456744672316</v>
+        <v>0.274883573759541</v>
       </c>
       <c r="F7" t="n">
         <v>-0</v>
       </c>
       <c r="G7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.2889968116898121</v>
+        <v>-0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>-0.1932753326272808</v>
       </c>
       <c r="L7" t="n">
-        <v>0.4915957044071139</v>
+        <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.1947304908104412</v>
       </c>
       <c r="N7" t="n">
-        <v>0.1557010620761147</v>
+        <v>0.2932928065889529</v>
       </c>
       <c r="O7" t="n">
         <v>-0</v>
       </c>
       <c r="P7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>-0.2516856153497729</v>
+        <v>-0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>-0.1307148232942271</v>
       </c>
       <c r="U7" t="n">
-        <v>-0.0053303594990327</v>
+        <v>-0</v>
       </c>
       <c r="V7" t="n">
-        <v>-0</v>
+        <v>0.08475879881400032</v>
       </c>
       <c r="W7" t="n">
-        <v>-0.1987678557082332</v>
+        <v>0.09525274671552875</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -3924,52 +3924,52 @@
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AA7" t="n">
-        <v>-0.08055248702911816</v>
+        <v>-0</v>
       </c>
       <c r="AB7" t="n">
         <v>-0</v>
       </c>
       <c r="AC7" t="n">
-        <v>-0</v>
+        <v>-0.08825618915868277</v>
       </c>
       <c r="AD7" t="n">
-        <v>0.07651806216013898</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>-0</v>
+        <v>-0.04641461857072769</v>
       </c>
       <c r="AF7" t="n">
-        <v>0.211450743149562</v>
+        <v>0.00392420985748522</v>
       </c>
       <c r="AG7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AH7" t="n">
         <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>0.2079577574149453</v>
+        <v>-0</v>
       </c>
       <c r="AK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AL7" t="n">
-        <v>-0</v>
+        <v>-0.0916634066377479</v>
       </c>
       <c r="AM7" t="n">
-        <v>0.07353192163016671</v>
+        <v>-0</v>
       </c>
       <c r="AN7" t="n">
-        <v>-0</v>
+        <v>-0.0002458037700372174</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0726881565984405</v>
+        <v>0.1214267207028675</v>
       </c>
       <c r="AP7" t="n">
         <v>-0</v>
@@ -3981,22 +3981,22 @@
         <v>-0</v>
       </c>
       <c r="AS7" t="n">
-        <v>-0.01403173635380884</v>
+        <v>-0</v>
       </c>
       <c r="AT7" t="n">
         <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>-0</v>
+        <v>-0.4714263727842218</v>
       </c>
       <c r="AV7" t="n">
-        <v>0.2795761738372345</v>
+        <v>-0</v>
       </c>
       <c r="AW7" t="n">
-        <v>-0</v>
+        <v>0.1051221789130924</v>
       </c>
       <c r="AX7" t="n">
-        <v>0.09515688726916452</v>
+        <v>0.02517026163759578</v>
       </c>
       <c r="AY7" t="n">
         <v>-0</v>
@@ -4005,79 +4005,79 @@
         <v>0</v>
       </c>
       <c r="BA7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BB7" t="n">
-        <v>-0.245660507646867</v>
+        <v>-0</v>
       </c>
       <c r="BC7" t="n">
         <v>-0</v>
       </c>
       <c r="BD7" t="n">
-        <v>0</v>
+        <v>-0.01253181331995625</v>
       </c>
       <c r="BE7" t="n">
-        <v>0.2416403236412174</v>
+        <v>-0</v>
       </c>
       <c r="BF7" t="n">
-        <v>0</v>
+        <v>0.04234061603064319</v>
       </c>
       <c r="BG7" t="n">
-        <v>-0.09584306405715118</v>
+        <v>0.308736518295445</v>
       </c>
       <c r="BH7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BJ7" t="n">
         <v>0</v>
       </c>
       <c r="BK7" t="n">
-        <v>0.0659588653507469</v>
+        <v>-0</v>
       </c>
       <c r="BL7" t="n">
         <v>0</v>
       </c>
       <c r="BM7" t="n">
-        <v>0</v>
+        <v>-0.1148918777185862</v>
       </c>
       <c r="BN7" t="n">
-        <v>-0.1163596227871567</v>
+        <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>0</v>
+        <v>-0.05163510551234789</v>
       </c>
       <c r="BP7" t="n">
-        <v>-0.1257552394138307</v>
+        <v>-0.1011918004277744</v>
       </c>
       <c r="BQ7" t="n">
         <v>0</v>
       </c>
       <c r="BR7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BT7" t="n">
-        <v>0.1132875161090292</v>
+        <v>0</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
       </c>
       <c r="BV7" t="n">
-        <v>0</v>
+        <v>-0.1902679126559514</v>
       </c>
       <c r="BW7" t="n">
-        <v>0.1677101288539931</v>
+        <v>-0</v>
       </c>
       <c r="BX7" t="n">
-        <v>-0</v>
+        <v>0.02140220870435444</v>
       </c>
       <c r="BY7" t="n">
-        <v>-0.02371628273095093</v>
+        <v>0.1110534148836139</v>
       </c>
       <c r="BZ7" t="n">
         <v>0</v>
@@ -4086,25 +4086,25 @@
         <v>0</v>
       </c>
       <c r="CB7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CC7" t="n">
-        <v>-0.1907710160979497</v>
+        <v>-0</v>
       </c>
       <c r="CD7" t="n">
         <v>0</v>
       </c>
       <c r="CE7" t="n">
-        <v>-0</v>
+        <v>0.0756969421288666</v>
       </c>
       <c r="CF7" t="n">
-        <v>-0.1071318978405834</v>
+        <v>0</v>
       </c>
       <c r="CG7" t="n">
-        <v>0</v>
+        <v>-0.02423423022391335</v>
       </c>
       <c r="CH7" t="n">
-        <v>-0.06028340629867989</v>
+        <v>-0.02727126711307931</v>
       </c>
       <c r="CI7" t="n">
         <v>0</v>
@@ -4116,22 +4116,22 @@
         <v>-0</v>
       </c>
       <c r="CL7" t="n">
-        <v>0.07405083893692309</v>
+        <v>-0</v>
       </c>
       <c r="CM7" t="n">
         <v>-0</v>
       </c>
       <c r="CN7" t="n">
-        <v>-0</v>
+        <v>-0.02258479801504088</v>
       </c>
       <c r="CO7" t="n">
-        <v>0.007720281675184708</v>
+        <v>-0</v>
       </c>
       <c r="CP7" t="n">
-        <v>-0</v>
+        <v>0.0908075751501934</v>
       </c>
       <c r="CQ7" t="n">
-        <v>0.04154120590749111</v>
+        <v>0.03087184064703569</v>
       </c>
       <c r="CR7" t="n">
         <v>-0</v>
@@ -4140,25 +4140,25 @@
         <v>0</v>
       </c>
       <c r="CT7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CU7" t="n">
-        <v>-0.134967838995489</v>
+        <v>-0</v>
       </c>
       <c r="CV7" t="n">
         <v>-0</v>
       </c>
       <c r="CW7" t="n">
-        <v>-0</v>
+        <v>0.05296510659849454</v>
       </c>
       <c r="CX7" t="n">
-        <v>-0.08562287779096098</v>
+        <v>-0</v>
       </c>
       <c r="CY7" t="n">
-        <v>-0</v>
+        <v>-0.04673312941921113</v>
       </c>
       <c r="CZ7" t="n">
-        <v>-0.01278539383452383</v>
+        <v>-0.02298846337139623</v>
       </c>
       <c r="DA7" t="n">
         <v>-0</v>
@@ -4170,103 +4170,103 @@
         <v>0</v>
       </c>
       <c r="DD7" t="n">
-        <v>0.06082883901665981</v>
+        <v>0</v>
       </c>
       <c r="DE7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DF7" t="n">
-        <v>-0</v>
+        <v>0.047664738579144</v>
       </c>
       <c r="DG7" t="n">
-        <v>0.007942047872041325</v>
+        <v>-0</v>
       </c>
       <c r="DH7" t="n">
-        <v>0</v>
+        <v>0.002390803233928819</v>
       </c>
       <c r="DI7" t="n">
-        <v>0.01140030172594288</v>
+        <v>-0.001704049653533248</v>
       </c>
       <c r="DJ7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DK7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL7" t="n">
         <v>-0</v>
       </c>
       <c r="DM7" t="n">
-        <v>-0.03220051852346983</v>
+        <v>-0</v>
       </c>
       <c r="DN7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DO7" t="n">
-        <v>-0</v>
+        <v>0.1177564158006951</v>
       </c>
       <c r="DP7" t="n">
-        <v>-0.02519787776128464</v>
+        <v>0</v>
       </c>
       <c r="DQ7" t="n">
-        <v>0</v>
+        <v>-0.0568588803121003</v>
       </c>
       <c r="DR7" t="n">
-        <v>-0.0665993770013644</v>
+        <v>-0.03471474836137795</v>
       </c>
       <c r="DS7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DU7" t="n">
         <v>0</v>
       </c>
       <c r="DV7" t="n">
-        <v>-0.1123648025955509</v>
+        <v>-0</v>
       </c>
       <c r="DW7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DX7" t="n">
-        <v>0</v>
+        <v>0.02470304738239621</v>
       </c>
       <c r="DY7" t="n">
-        <v>-0.04092694313168296</v>
+        <v>-0</v>
       </c>
       <c r="DZ7" t="n">
-        <v>-0</v>
+        <v>0.05609361646616716</v>
       </c>
       <c r="EA7" t="n">
-        <v>0.09973013377040073</v>
+        <v>0.05743837303411233</v>
       </c>
       <c r="EB7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EC7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="ED7" t="n">
         <v>-0</v>
       </c>
       <c r="EE7" t="n">
-        <v>0.002358089212296561</v>
+        <v>0</v>
       </c>
       <c r="EF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG7" t="n">
-        <v>0</v>
+        <v>-0.05936317556627226</v>
       </c>
       <c r="EH7" t="n">
-        <v>-0.07002688345902074</v>
+        <v>0</v>
       </c>
       <c r="EI7" t="n">
-        <v>-0</v>
+        <v>-0.0660364129726157</v>
       </c>
       <c r="EJ7" t="n">
-        <v>-0.1508074642293722</v>
+        <v>-0.01576657985571617</v>
       </c>
       <c r="EK7" t="n">
         <v>0</v>
@@ -4275,25 +4275,25 @@
         <v>0</v>
       </c>
       <c r="EM7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="EN7" t="n">
-        <v>0.05267926854860271</v>
+        <v>0</v>
       </c>
       <c r="EO7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EP7" t="n">
-        <v>0</v>
+        <v>0.05409245926369587</v>
       </c>
       <c r="EQ7" t="n">
-        <v>-0.06232710841988665</v>
+        <v>0</v>
       </c>
       <c r="ER7" t="n">
-        <v>0</v>
+        <v>-0.04148467880954274</v>
       </c>
       <c r="ES7" t="n">
-        <v>0.0761554997957351</v>
+        <v>0.03406421907139789</v>
       </c>
       <c r="ET7" t="n">
         <v>0</v>
@@ -4302,25 +4302,25 @@
         <v>0</v>
       </c>
       <c r="EV7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW7" t="n">
-        <v>0.1588718728471039</v>
+        <v>0</v>
       </c>
       <c r="EX7" t="n">
         <v>0</v>
       </c>
       <c r="EY7" t="n">
-        <v>0</v>
+        <v>0.049944682094452</v>
       </c>
       <c r="EZ7" t="n">
-        <v>-0.1022027964767128</v>
+        <v>0</v>
       </c>
       <c r="FA7" t="n">
-        <v>0</v>
+        <v>-0.04448200587875669</v>
       </c>
       <c r="FB7" t="n">
-        <v>-0.04420664162081642</v>
+        <v>-0.03129880808709181</v>
       </c>
       <c r="FC7" t="n">
         <v>0</v>
@@ -4332,73 +4332,73 @@
         <v>-0</v>
       </c>
       <c r="FF7" t="n">
-        <v>0.08875461934684829</v>
+        <v>-0</v>
       </c>
       <c r="FG7" t="n">
         <v>0</v>
       </c>
       <c r="FH7" t="n">
-        <v>-0</v>
+        <v>0.009943701954090306</v>
       </c>
       <c r="FI7" t="n">
-        <v>-0.1556370740201557</v>
+        <v>0</v>
       </c>
       <c r="FJ7" t="n">
-        <v>0</v>
+        <v>-0.1232345382660162</v>
       </c>
       <c r="FK7" t="n">
-        <v>0.04267783615892359</v>
+        <v>-0.03678731109232182</v>
       </c>
       <c r="FL7" t="n">
         <v>-0</v>
       </c>
       <c r="FM7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FN7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO7" t="n">
-        <v>0.09638980876375575</v>
+        <v>-0</v>
       </c>
       <c r="FP7" t="n">
         <v>0</v>
       </c>
       <c r="FQ7" t="n">
-        <v>-0</v>
+        <v>0.00717207470794921</v>
       </c>
       <c r="FR7" t="n">
-        <v>-0.09935132845797513</v>
+        <v>-0</v>
       </c>
       <c r="FS7" t="n">
-        <v>-0</v>
+        <v>0.03056483655090257</v>
       </c>
       <c r="FT7" t="n">
-        <v>-0.007023895138727998</v>
+        <v>0.04328019973158977</v>
       </c>
       <c r="FU7" t="n">
         <v>0</v>
       </c>
       <c r="FV7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FW7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX7" t="n">
-        <v>-0.06667503919856024</v>
+        <v>-0</v>
       </c>
       <c r="FY7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="FZ7" t="n">
-        <v>0</v>
+        <v>0.01559193438758244</v>
       </c>
       <c r="GA7" t="n">
-        <v>0.05984625497742366</v>
+        <v>0</v>
       </c>
       <c r="GB7" t="n">
-        <v>-0</v>
+        <v>0.06045052855016572</v>
       </c>
       <c r="GC7" t="n">
         <v>-0</v>
@@ -4407,33 +4407,33 @@
         <v>0</v>
       </c>
       <c r="GE7" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GF7" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG7" t="n">
-        <v>0.1319069763947436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.4046086534633589</v>
+        <v>-0</v>
       </c>
       <c r="B8" t="n">
-        <v>-0</v>
+        <v>1.479973266844613</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1199470755714507</v>
+        <v>-0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-1.366721057858814</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.01164826282342094</v>
+        <v>0.08532578762152405</v>
       </c>
       <c r="F8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -4445,19 +4445,19 @@
         <v>-0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.3907326327487926</v>
+        <v>-0</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>1.174669328845304</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.1188759690949107</v>
+        <v>-0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>-1.322662037711207</v>
       </c>
       <c r="N8" t="n">
-        <v>-0.1147468217476088</v>
+        <v>-0.1784802153789106</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
@@ -4466,58 +4466,58 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0.01243243730340646</v>
+        <v>-0</v>
       </c>
       <c r="T8" t="n">
-        <v>-0</v>
+        <v>0.1666280167650273</v>
       </c>
       <c r="U8" t="n">
-        <v>-0.0495296173307102</v>
+        <v>-0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>-0.07856006950843873</v>
       </c>
       <c r="W8" t="n">
-        <v>-0.109399182061102</v>
+        <v>-0.003427647439567487</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AB8" t="n">
-        <v>0.02333630482989264</v>
+        <v>-0</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0</v>
+        <v>0.2211429020684371</v>
       </c>
       <c r="AD8" t="n">
-        <v>0.03740542982384908</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>-0.1997263770688445</v>
       </c>
       <c r="AF8" t="n">
-        <v>0.04774480725163896</v>
+        <v>0.1004107561632006</v>
       </c>
       <c r="AG8" t="n">
         <v>-0</v>
       </c>
       <c r="AH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
@@ -4526,52 +4526,52 @@
         <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>0.06373026289487274</v>
+        <v>-0</v>
       </c>
       <c r="AL8" t="n">
-        <v>0</v>
+        <v>0.2052548836783624</v>
       </c>
       <c r="AM8" t="n">
-        <v>-0.01786311726004048</v>
+        <v>-0</v>
       </c>
       <c r="AN8" t="n">
-        <v>0</v>
+        <v>-0.092462756424667</v>
       </c>
       <c r="AO8" t="n">
-        <v>-0.01700439870344104</v>
+        <v>-0.008237632099742733</v>
       </c>
       <c r="AP8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="AQ8" t="n">
         <v>-0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>0.1885487022291161</v>
+        <v>-0</v>
       </c>
       <c r="AU8" t="n">
-        <v>0</v>
+        <v>0.9735903055764584</v>
       </c>
       <c r="AV8" t="n">
-        <v>-0.09496862355217883</v>
+        <v>-0</v>
       </c>
       <c r="AW8" t="n">
-        <v>-0</v>
+        <v>-0.4227595029101938</v>
       </c>
       <c r="AX8" t="n">
-        <v>-0.03396692068483021</v>
+        <v>0.1350112976285543</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BA8" t="n">
         <v>-0</v>
@@ -4580,25 +4580,25 @@
         <v>0</v>
       </c>
       <c r="BC8" t="n">
-        <v>0.08106735805507197</v>
+        <v>-0</v>
       </c>
       <c r="BD8" t="n">
-        <v>0</v>
+        <v>0.4817417945926575</v>
       </c>
       <c r="BE8" t="n">
-        <v>-0.02566554912158148</v>
+        <v>0</v>
       </c>
       <c r="BF8" t="n">
-        <v>0</v>
+        <v>-0.5123795329078787</v>
       </c>
       <c r="BG8" t="n">
-        <v>0.06307725410954623</v>
+        <v>-0.2199596716232918</v>
       </c>
       <c r="BH8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BI8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ8" t="n">
         <v>0</v>
@@ -4607,25 +4607,25 @@
         <v>-0</v>
       </c>
       <c r="BL8" t="n">
-        <v>-0.03324620105849176</v>
+        <v>-0</v>
       </c>
       <c r="BM8" t="n">
-        <v>0</v>
+        <v>0.1933257529662728</v>
       </c>
       <c r="BN8" t="n">
-        <v>0.02148469419777682</v>
+        <v>0</v>
       </c>
       <c r="BO8" t="n">
-        <v>0</v>
+        <v>-0.3261970174058931</v>
       </c>
       <c r="BP8" t="n">
-        <v>0.09166983504686071</v>
+        <v>0.3141687696844003</v>
       </c>
       <c r="BQ8" t="n">
         <v>-0</v>
       </c>
       <c r="BR8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="BS8" t="n">
         <v>0</v>
@@ -4634,52 +4634,52 @@
         <v>-0</v>
       </c>
       <c r="BU8" t="n">
-        <v>0.142219070512826</v>
+        <v>-0</v>
       </c>
       <c r="BV8" t="n">
-        <v>0</v>
+        <v>0.5295731603208662</v>
       </c>
       <c r="BW8" t="n">
-        <v>-0.05609382305561494</v>
+        <v>0</v>
       </c>
       <c r="BX8" t="n">
-        <v>0</v>
+        <v>-0.1865443356073932</v>
       </c>
       <c r="BY8" t="n">
-        <v>-0.01390576498781982</v>
+        <v>0.1945096156651563</v>
       </c>
       <c r="BZ8" t="n">
         <v>-0</v>
       </c>
       <c r="CA8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CB8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CC8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CD8" t="n">
-        <v>-0.08177413496552113</v>
+        <v>0</v>
       </c>
       <c r="CE8" t="n">
-        <v>0</v>
+        <v>-0.2392728099404783</v>
       </c>
       <c r="CF8" t="n">
-        <v>0.01779430581347823</v>
+        <v>0</v>
       </c>
       <c r="CG8" t="n">
-        <v>-0</v>
+        <v>0.2435078455920171</v>
       </c>
       <c r="CH8" t="n">
-        <v>0.009730799250523095</v>
+        <v>-0.05063580752064673</v>
       </c>
       <c r="CI8" t="n">
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CK8" t="n">
         <v>0</v>
@@ -4688,46 +4688,46 @@
         <v>0</v>
       </c>
       <c r="CM8" t="n">
-        <v>-0.01377445254138232</v>
+        <v>0</v>
       </c>
       <c r="CN8" t="n">
-        <v>-0</v>
+        <v>-0.1713669146719727</v>
       </c>
       <c r="CO8" t="n">
-        <v>0.01484122387503985</v>
+        <v>-0</v>
       </c>
       <c r="CP8" t="n">
-        <v>-0</v>
+        <v>-0.01274584424961466</v>
       </c>
       <c r="CQ8" t="n">
-        <v>-0.0678298583524294</v>
+        <v>-0.05119496832474154</v>
       </c>
       <c r="CR8" t="n">
         <v>0</v>
       </c>
       <c r="CS8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CT8" t="n">
         <v>-0</v>
       </c>
       <c r="CU8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="CV8" t="n">
-        <v>-0.06983612398129385</v>
+        <v>0</v>
       </c>
       <c r="CW8" t="n">
-        <v>-0</v>
+        <v>-0.21514503859233</v>
       </c>
       <c r="CX8" t="n">
-        <v>0.01836968179140675</v>
+        <v>-0</v>
       </c>
       <c r="CY8" t="n">
-        <v>0</v>
+        <v>0.2504944643347122</v>
       </c>
       <c r="CZ8" t="n">
-        <v>-0.01858456665422747</v>
+        <v>-0.02287500042119803</v>
       </c>
       <c r="DA8" t="n">
         <v>-0</v>
@@ -4739,22 +4739,22 @@
         <v>-0</v>
       </c>
       <c r="DD8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DE8" t="n">
-        <v>0.01018447171999415</v>
+        <v>-0</v>
       </c>
       <c r="DF8" t="n">
-        <v>0</v>
+        <v>-0.6730368904003899</v>
       </c>
       <c r="DG8" t="n">
-        <v>0.001748901336444924</v>
+        <v>-0</v>
       </c>
       <c r="DH8" t="n">
-        <v>0</v>
+        <v>0.2563979950308195</v>
       </c>
       <c r="DI8" t="n">
-        <v>-0.001973154910339712</v>
+        <v>0.007693586736755487</v>
       </c>
       <c r="DJ8" t="n">
         <v>-0</v>
@@ -4763,25 +4763,25 @@
         <v>0</v>
       </c>
       <c r="DL8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DM8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DN8" t="n">
-        <v>-0.007472663286838773</v>
+        <v>-0</v>
       </c>
       <c r="DO8" t="n">
-        <v>0</v>
+        <v>-0.1347658881819185</v>
       </c>
       <c r="DP8" t="n">
-        <v>-0.02191701323759407</v>
+        <v>0</v>
       </c>
       <c r="DQ8" t="n">
-        <v>-0</v>
+        <v>0.09032750604579859</v>
       </c>
       <c r="DR8" t="n">
-        <v>-0.008817594534567401</v>
+        <v>0.03293503449243314</v>
       </c>
       <c r="DS8" t="n">
         <v>-0</v>
@@ -4793,22 +4793,22 @@
         <v>0</v>
       </c>
       <c r="DV8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="DW8" t="n">
-        <v>-0.0006502390919316185</v>
+        <v>0</v>
       </c>
       <c r="DX8" t="n">
-        <v>-0</v>
+        <v>-0.1482336751397358</v>
       </c>
       <c r="DY8" t="n">
-        <v>-0.01690405086493381</v>
+        <v>-0</v>
       </c>
       <c r="DZ8" t="n">
-        <v>-0</v>
+        <v>0.1393074142315704</v>
       </c>
       <c r="EA8" t="n">
-        <v>-0.0174001660881271</v>
+        <v>0.09817154537767148</v>
       </c>
       <c r="EB8" t="n">
         <v>0</v>
@@ -4823,46 +4823,46 @@
         <v>0</v>
       </c>
       <c r="EF8" t="n">
-        <v>0.1174211107179585</v>
+        <v>0</v>
       </c>
       <c r="EG8" t="n">
-        <v>0</v>
+        <v>-0.1939880596378885</v>
       </c>
       <c r="EH8" t="n">
-        <v>0.02243289129979368</v>
+        <v>0</v>
       </c>
       <c r="EI8" t="n">
-        <v>-0</v>
+        <v>-0.100668331733528</v>
       </c>
       <c r="EJ8" t="n">
-        <v>0.01771958245934843</v>
+        <v>0.09727862652724481</v>
       </c>
       <c r="EK8" t="n">
         <v>0</v>
       </c>
       <c r="EL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EN8" t="n">
         <v>-0</v>
       </c>
       <c r="EO8" t="n">
-        <v>-0.01882489660766522</v>
+        <v>-0</v>
       </c>
       <c r="EP8" t="n">
-        <v>0</v>
+        <v>0.1394628679287139</v>
       </c>
       <c r="EQ8" t="n">
-        <v>-0.03269709650532176</v>
+        <v>0</v>
       </c>
       <c r="ER8" t="n">
-        <v>0</v>
+        <v>0.2264799170701719</v>
       </c>
       <c r="ES8" t="n">
-        <v>-0.01222451704612397</v>
+        <v>0.004866124451873613</v>
       </c>
       <c r="ET8" t="n">
         <v>-0</v>
@@ -4871,25 +4871,25 @@
         <v>-0</v>
       </c>
       <c r="EV8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EW8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EX8" t="n">
-        <v>-0.07052701913609633</v>
+        <v>0</v>
       </c>
       <c r="EY8" t="n">
-        <v>0</v>
+        <v>-0.227709409968083</v>
       </c>
       <c r="EZ8" t="n">
-        <v>0.01516386882568716</v>
+        <v>0</v>
       </c>
       <c r="FA8" t="n">
-        <v>-0</v>
+        <v>0.2192750679983748</v>
       </c>
       <c r="FB8" t="n">
-        <v>-0.01380767412214059</v>
+        <v>-0.03754913129438246</v>
       </c>
       <c r="FC8" t="n">
         <v>-0</v>
@@ -4904,22 +4904,22 @@
         <v>0</v>
       </c>
       <c r="FG8" t="n">
-        <v>-0.06503748985915844</v>
+        <v>0</v>
       </c>
       <c r="FH8" t="n">
-        <v>-0</v>
+        <v>-0.03807351423942956</v>
       </c>
       <c r="FI8" t="n">
-        <v>0.02771547788454704</v>
+        <v>0</v>
       </c>
       <c r="FJ8" t="n">
-        <v>-0</v>
+        <v>0.1065447895731372</v>
       </c>
       <c r="FK8" t="n">
-        <v>-0.02713842805948215</v>
+        <v>-0.1393887309658001</v>
       </c>
       <c r="FL8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FM8" t="n">
         <v>-0</v>
@@ -4931,19 +4931,19 @@
         <v>-0</v>
       </c>
       <c r="FP8" t="n">
-        <v>-0.06033933422206413</v>
+        <v>0</v>
       </c>
       <c r="FQ8" t="n">
-        <v>0</v>
+        <v>-0.1303505153741816</v>
       </c>
       <c r="FR8" t="n">
-        <v>0.02587767455018448</v>
+        <v>-0</v>
       </c>
       <c r="FS8" t="n">
-        <v>-0</v>
+        <v>-0.06297747978449567</v>
       </c>
       <c r="FT8" t="n">
-        <v>0.006832331890721187</v>
+        <v>0.1025965675498607</v>
       </c>
       <c r="FU8" t="n">
         <v>0</v>
@@ -4958,129 +4958,129 @@
         <v>0</v>
       </c>
       <c r="FY8" t="n">
-        <v>0.04825578361776991</v>
+        <v>0</v>
       </c>
       <c r="FZ8" t="n">
-        <v>0</v>
+        <v>-0.06790225707878805</v>
       </c>
       <c r="GA8" t="n">
-        <v>-0.03951070544621632</v>
+        <v>0</v>
       </c>
       <c r="GB8" t="n">
-        <v>0</v>
+        <v>-0.1171282692665396</v>
       </c>
       <c r="GC8" t="n">
         <v>0</v>
       </c>
       <c r="GD8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GE8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF8" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="GG8" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>-0.4359815246301266</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.4718761791829003</v>
       </c>
       <c r="E9" t="n">
-        <v>-0</v>
+        <v>-0.1156876976204974</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>-0.3415869383224051</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>0.5267068366026778</v>
       </c>
       <c r="N9" t="n">
-        <v>-0</v>
+        <v>-0.05178230849345734</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>-0.06282174319583683</v>
       </c>
       <c r="U9" t="n">
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>0.05676147070284845</v>
       </c>
       <c r="W9" t="n">
-        <v>-0</v>
+        <v>-0.05609452362594246</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="Z9" t="n">
         <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AB9" t="n">
         <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>-0.1661720702045666</v>
       </c>
       <c r="AD9" t="n">
         <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>0.0123532719661941</v>
       </c>
       <c r="AF9" t="n">
-        <v>-0</v>
+        <v>-0.0996462220535201</v>
       </c>
       <c r="AG9" t="n">
         <v>0</v>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AJ9" t="n">
         <v>0</v>
@@ -5098,79 +5098,79 @@
         <v>0</v>
       </c>
       <c r="AL9" t="n">
-        <v>0</v>
+        <v>-0.0537101822278517</v>
       </c>
       <c r="AM9" t="n">
         <v>0</v>
       </c>
       <c r="AN9" t="n">
-        <v>0</v>
+        <v>0.07487764565707392</v>
       </c>
       <c r="AO9" t="n">
-        <v>-0</v>
+        <v>0.02291920950299189</v>
       </c>
       <c r="AP9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AT9" t="n">
         <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>0</v>
+        <v>-0.2254365194076659</v>
       </c>
       <c r="AV9" t="n">
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>0</v>
+        <v>0.1815176571864835</v>
       </c>
       <c r="AX9" t="n">
-        <v>-0</v>
+        <v>-0.1162848109312128</v>
       </c>
       <c r="AY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="AZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BA9" t="n">
         <v>0</v>
       </c>
       <c r="BB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BD9" t="n">
-        <v>0</v>
+        <v>-0.1901658304067562</v>
       </c>
       <c r="BE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BF9" t="n">
-        <v>0</v>
+        <v>0.1977482601154656</v>
       </c>
       <c r="BG9" t="n">
-        <v>-0</v>
+        <v>0.1064275149806939</v>
       </c>
       <c r="BH9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BJ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BK9" t="n">
         <v>0</v>
@@ -5179,22 +5179,22 @@
         <v>0</v>
       </c>
       <c r="BM9" t="n">
-        <v>0</v>
+        <v>0.02214472635467394</v>
       </c>
       <c r="BN9" t="n">
         <v>0</v>
       </c>
       <c r="BO9" t="n">
-        <v>0</v>
+        <v>0.0504806852493777</v>
       </c>
       <c r="BP9" t="n">
-        <v>-0</v>
+        <v>-0.07040462918400971</v>
       </c>
       <c r="BQ9" t="n">
         <v>0</v>
       </c>
       <c r="BR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="BS9" t="n">
         <v>0</v>
@@ -5206,46 +5206,46 @@
         <v>0</v>
       </c>
       <c r="BV9" t="n">
-        <v>0</v>
+        <v>-0.06575159976274975</v>
       </c>
       <c r="BW9" t="n">
         <v>0</v>
       </c>
       <c r="BX9" t="n">
-        <v>0</v>
+        <v>0.1171529889953752</v>
       </c>
       <c r="BY9" t="n">
-        <v>-0</v>
+        <v>-0.1324334334542377</v>
       </c>
       <c r="BZ9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CB9" t="n">
         <v>0</v>
       </c>
       <c r="CC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CD9" t="n">
         <v>0</v>
       </c>
       <c r="CE9" t="n">
-        <v>0</v>
+        <v>0.06745654294723229</v>
       </c>
       <c r="CF9" t="n">
         <v>0</v>
       </c>
       <c r="CG9" t="n">
-        <v>0</v>
+        <v>-0.1165091156783931</v>
       </c>
       <c r="CH9" t="n">
-        <v>-0</v>
+        <v>0.04812156296191444</v>
       </c>
       <c r="CI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CJ9" t="n">
         <v>0</v>
@@ -5257,22 +5257,22 @@
         <v>0</v>
       </c>
       <c r="CM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CN9" t="n">
-        <v>0</v>
+        <v>0.02185985076007273</v>
       </c>
       <c r="CO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CP9" t="n">
-        <v>0</v>
+        <v>-0.09634130602196353</v>
       </c>
       <c r="CQ9" t="n">
-        <v>-0</v>
+        <v>0.03714203642667075</v>
       </c>
       <c r="CR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CS9" t="n">
         <v>0</v>
@@ -5284,133 +5284,133 @@
         <v>0</v>
       </c>
       <c r="CV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CW9" t="n">
-        <v>0</v>
+        <v>0.09010157542025901</v>
       </c>
       <c r="CX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="CY9" t="n">
-        <v>0</v>
+        <v>-0.1023476109536826</v>
       </c>
       <c r="CZ9" t="n">
-        <v>0</v>
+        <v>0.02169321857981353</v>
       </c>
       <c r="DA9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DD9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DE9" t="n">
         <v>0</v>
       </c>
       <c r="DF9" t="n">
-        <v>0</v>
+        <v>0.09330774394366353</v>
       </c>
       <c r="DG9" t="n">
         <v>0</v>
       </c>
       <c r="DH9" t="n">
-        <v>0</v>
+        <v>-0.003884068459489228</v>
       </c>
       <c r="DI9" t="n">
-        <v>-0</v>
+        <v>0.01752444979467531</v>
       </c>
       <c r="DJ9" t="n">
         <v>0</v>
       </c>
       <c r="DK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DM9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DN9" t="n">
         <v>0</v>
       </c>
       <c r="DO9" t="n">
-        <v>0</v>
+        <v>0.02491417302721137</v>
       </c>
       <c r="DP9" t="n">
         <v>0</v>
       </c>
       <c r="DQ9" t="n">
-        <v>0</v>
+        <v>-0.03005318400664825</v>
       </c>
       <c r="DR9" t="n">
-        <v>-0</v>
+        <v>0.001729606560937753</v>
       </c>
       <c r="DS9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DT9" t="n">
         <v>0</v>
       </c>
       <c r="DU9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DV9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DW9" t="n">
         <v>0</v>
       </c>
       <c r="DX9" t="n">
-        <v>0</v>
+        <v>0.1187634119193375</v>
       </c>
       <c r="DY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="DZ9" t="n">
-        <v>0</v>
+        <v>-0.07731852250270733</v>
       </c>
       <c r="EA9" t="n">
-        <v>-0</v>
+        <v>0.1114669988529639</v>
       </c>
       <c r="EB9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="ED9" t="n">
         <v>0</v>
       </c>
       <c r="EE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EG9" t="n">
-        <v>0</v>
+        <v>0.03291938864316571</v>
       </c>
       <c r="EH9" t="n">
         <v>0</v>
       </c>
       <c r="EI9" t="n">
-        <v>0</v>
+        <v>-0.07376220343285665</v>
       </c>
       <c r="EJ9" t="n">
-        <v>0</v>
+        <v>-0.009902926332031974</v>
       </c>
       <c r="EK9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EL9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EM9" t="n">
         <v>0</v>
@@ -5422,19 +5422,19 @@
         <v>0</v>
       </c>
       <c r="EP9" t="n">
-        <v>0</v>
+        <v>-0.09352644547294127</v>
       </c>
       <c r="EQ9" t="n">
         <v>0</v>
       </c>
       <c r="ER9" t="n">
-        <v>0</v>
+        <v>-0.0007959602556867462</v>
       </c>
       <c r="ES9" t="n">
-        <v>-0</v>
+        <v>0.06113806617484525</v>
       </c>
       <c r="ET9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="EU9" t="n">
         <v>0</v>
@@ -5449,19 +5449,19 @@
         <v>0</v>
       </c>
       <c r="EY9" t="n">
-        <v>0</v>
+        <v>0.1057497010977716</v>
       </c>
       <c r="EZ9" t="n">
         <v>0</v>
       </c>
       <c r="FA9" t="n">
-        <v>0</v>
+        <v>-0.08410533273550594</v>
       </c>
       <c r="FB9" t="n">
-        <v>-0</v>
+        <v>0.0379463692057752</v>
       </c>
       <c r="FC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FD9" t="n">
         <v>0</v>
@@ -5470,22 +5470,22 @@
         <v>0</v>
       </c>
       <c r="FF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FG9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FH9" t="n">
-        <v>0</v>
+        <v>0.003868613226928485</v>
       </c>
       <c r="FI9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FJ9" t="n">
-        <v>0</v>
+        <v>0.06584904689199719</v>
       </c>
       <c r="FK9" t="n">
-        <v>-0</v>
+        <v>0.004410617585389942</v>
       </c>
       <c r="FL9" t="n">
         <v>0</v>
@@ -5494,25 +5494,25 @@
         <v>0</v>
       </c>
       <c r="FN9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FO9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FP9" t="n">
         <v>0</v>
       </c>
       <c r="FQ9" t="n">
-        <v>0</v>
+        <v>0.05749160532360922</v>
       </c>
       <c r="FR9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FS9" t="n">
-        <v>0</v>
+        <v>0.06102109519008222</v>
       </c>
       <c r="FT9" t="n">
-        <v>-0</v>
+        <v>0.06434173330481482</v>
       </c>
       <c r="FU9" t="n">
         <v>0</v>
@@ -5521,34 +5521,34 @@
         <v>0</v>
       </c>
       <c r="FW9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FX9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FY9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="FZ9" t="n">
-        <v>0</v>
+        <v>0.02280704780793221</v>
       </c>
       <c r="GA9" t="n">
         <v>0</v>
       </c>
       <c r="GB9" t="n">
-        <v>0</v>
+        <v>0.2246034725071126</v>
       </c>
       <c r="GC9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GD9" t="n">
         <v>0</v>
       </c>
       <c r="GE9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GF9" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="GG9" t="n">
         <v>0</v>
